--- a/Tasks/Lab_02.xlsx
+++ b/Tasks/Lab_02.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Parallel\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68082EBC-3A01-4E7F-B0C0-36462F2E13C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88E0E2A-3FED-4607-93DE-9F515D4B2B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="0" windowWidth="27150" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="По строкам" sheetId="2" r:id="rId1"/>
     <sheet name="По столбцам" sheetId="4" r:id="rId2"/>
     <sheet name="Сравнительная таблица" sheetId="5" r:id="rId3"/>
+    <sheet name="Интеграл" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,12 +28,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Размерность</t>
   </si>
   <si>
     <t>Потоки</t>
+  </si>
+  <si>
+    <t>Точность</t>
+  </si>
+  <si>
+    <t>10^-4</t>
+  </si>
+  <si>
+    <t>10^-5</t>
+  </si>
+  <si>
+    <t>10^-6</t>
+  </si>
+  <si>
+    <t>10^-7</t>
+  </si>
+  <si>
+    <t>10^-8</t>
   </si>
 </sst>
 </file>
@@ -1087,6 +1106,1747 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> замеров времени вычисления приближенного значения определенного интеграла</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Интеграл!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Интеграл!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Интеграл!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-270F-4011-B483-87F73227E686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Интеграл!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^-5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Интеграл!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Интеграл!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-270F-4011-B483-87F73227E686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Интеграл!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Интеграл!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Интеграл!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-270F-4011-B483-87F73227E686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Интеграл!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Интеграл!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Интеграл!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-270F-4011-B483-87F73227E686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Интеграл!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^-8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Интеграл!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Интеграл!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19.437000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-270F-4011-B483-87F73227E686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="445725792"/>
+        <c:axId val="445726152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="445725792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> потоков</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445726152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445726152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445725792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> замеров времени вычисления приближенного значения определенного интеграла</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Интеграл!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Интеграл!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Интеграл!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D833-4C99-B9BE-69D09EF570FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Интеграл!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^-5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Интеграл!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Интеграл!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D833-4C99-B9BE-69D09EF570FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Интеграл!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Интеграл!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Интеграл!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D833-4C99-B9BE-69D09EF570FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Интеграл!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Интеграл!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Интеграл!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D833-4C99-B9BE-69D09EF570FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="445725792"/>
+        <c:axId val="445726152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="445725792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> потоков</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445726152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445726152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445725792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3467,7 +5227,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6336,6 +8095,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6642,6 +8481,1012 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11521,6 +14366,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650DD84A-BFD7-92E9-DF22-CBE76756FC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF5F89A-D018-4047-AF08-5A4733755D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11980,8 +14904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1C3F1E-0E9B-45D2-9CE0-183A34EABE6A}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12178,8 +15102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDCF44E-7B71-4DEF-BE6C-F600C5BDAE6C}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12516,4 +15440,196 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D245D2EE-417F-4F69-98E0-74EA9F9813CE}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.153</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.248</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>19.437000000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.4480000000000004</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.589</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.4260000000000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.6739999999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.645</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>